--- a/Aloy/MonthlyTracker.xlsx
+++ b/Aloy/MonthlyTracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\MarketLearning\Aloy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343D898F-7250-4F41-8E5A-30A8654D3DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644FA15D-3D18-4D80-A357-6808E5F99D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="May, 2025" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">Description </t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Credit Card</t>
+  </si>
+  <si>
+    <t>Additional Cost</t>
   </si>
 </sst>
 </file>
@@ -144,12 +147,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,16 +446,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -537,10 +540,18 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B14" s="5">
         <f xml:space="preserve"> B3 - SUM(B4:B12)</f>
         <v>37289</v>
       </c>

--- a/Aloy/MonthlyTracker.xlsx
+++ b/Aloy/MonthlyTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\MarketLearning\Aloy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644FA15D-3D18-4D80-A357-6808E5F99D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B50648E-CB13-4754-93A6-F9EBB9302F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">Description </t>
   </si>
@@ -48,9 +48,6 @@
     <t xml:space="preserve">Combined Salary Income </t>
   </si>
   <si>
-    <t>PPF (self + spouse</t>
-  </si>
-  <si>
     <t>LIC (self + spouse)</t>
   </si>
   <si>
@@ -79,6 +76,15 @@
   </si>
   <si>
     <t>Additional Cost</t>
+  </si>
+  <si>
+    <t>PPF (self + spouse)</t>
+  </si>
+  <si>
+    <t>30-35K</t>
+  </si>
+  <si>
+    <t>Invest in Stocks</t>
   </si>
 </sst>
 </file>
@@ -143,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -153,6 +159,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,13 +452,13 @@
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="6"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -459,7 +466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -467,93 +474,100 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2">
         <v>25000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>28000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>40000</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>45000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>6000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>1711</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2">
         <v>30000</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>8000</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2">
         <v>19000</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2">
         <v>15000</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="5">
-        <f xml:space="preserve"> B3 - SUM(B4:B12)</f>
-        <v>37289</v>
+        <f xml:space="preserve"> B3 - SUM(B4:B13)</f>
+        <v>22289</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
